--- a/config_7.13/game_module_config.xlsx
+++ b/config_7.13/game_module_config.xlsx
@@ -3600,7 +3600,7 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_021_dlphb</t>
+    <t>act_ty_sjb_style/act_022_dlphb</t>
   </si>
   <si>
     <t>掉落排行榜皮肤（消耗）</t>
@@ -3627,7 +3627,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_023</t>
+    <t>sys_act_base_style/sys_act_base_weekly_024</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3841,10 +3841,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3928,21 +3928,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3957,19 +3942,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3983,21 +4016,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -4006,9 +4024,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4031,38 +4057,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4070,10 +4065,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4127,7 +4127,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4139,49 +4229,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4193,79 +4259,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4283,19 +4295,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4339,17 +4339,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4369,7 +4358,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4378,7 +4367,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4407,6 +4396,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4429,10 +4429,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4441,137 +4441,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5063,11 +5063,11 @@
   <dimension ref="A1:I342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C313" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H333" sqref="H333"/>
+      <selection pane="bottomRight" activeCell="C345" sqref="C345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12060,13 +12060,13 @@
         <v>798</v>
       </c>
       <c r="E275" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F275" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G275" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I275" s="46">
         <v>44368</v>
@@ -13164,13 +13164,13 @@
         <v>932</v>
       </c>
       <c r="E318" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F318" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G318" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" s="47">
         <v>44361</v>
@@ -13543,13 +13543,13 @@
         <v>975</v>
       </c>
       <c r="E333" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F333" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G333" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" s="46">
         <v>44355</v>
@@ -13569,13 +13569,13 @@
         <v>977</v>
       </c>
       <c r="E334" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F334" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G334" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" s="32" t="s">
         <v>978</v>
@@ -13719,13 +13719,13 @@
         <v>997</v>
       </c>
       <c r="E340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I340" s="46">
         <v>44368</v>
